--- a/Exported csv/table_H1_mean_sem.xlsx
+++ b/Exported csv/table_H1_mean_sem.xlsx
@@ -409,17 +409,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A:['Discount'] &gt; 0</t>
+          <t>A: ['Discount'] &gt; 0</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>27.10978520286396</v>
+        <v>27.1098</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7175374620266017</v>
+        <v>0.7175</v>
       </c>
       <c r="F2" t="n">
-        <v>20.75904207514137</v>
+        <v>20.759</v>
       </c>
       <c r="G2" t="n">
         <v>838</v>
@@ -436,17 +436,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>B:['Discount'] == 0</t>
+          <t>B: ['Discount'] == 0</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21.71526195899772</v>
+        <v>21.7153</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4824264219638805</v>
+        <v>0.4824</v>
       </c>
       <c r="F3" t="n">
-        <v>17.50084547766981</v>
+        <v>17.5008</v>
       </c>
       <c r="G3" t="n">
         <v>1317</v>
